--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/20/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.512</v>
+        <v>-7.406999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.79</v>
+        <v>-21.972</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.592</v>
+        <v>-21.659</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.872</v>
+        <v>-22.051</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.331999999999999</v>
+        <v>-8.225</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.272</v>
+        <v>-19.947</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.566</v>
+        <v>-20.302</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.390000000000001</v>
+        <v>-7.574</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.564</v>
+        <v>-21.759</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.816</v>
+        <v>-7.709999999999999</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.574</v>
+        <v>-21.435</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.448000000000002</v>
+        <v>-8.279</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.284</v>
+        <v>-21.232</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.454000000000001</v>
+        <v>-7.305</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.046000000000001</v>
+        <v>-7.930000000000001</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.236</v>
+        <v>-7.502000000000001</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.454</v>
+        <v>-20.182</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.034000000000001</v>
+        <v>-7.100999999999999</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.358000000000001</v>
+        <v>-8.259000000000002</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.944</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.748</v>
+        <v>-21.924</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.540000000000001</v>
+        <v>-8.258999999999999</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.184000000000001</v>
+        <v>-8.459999999999999</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.702</v>
+        <v>-22.576</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.592000000000001</v>
+        <v>-8.270999999999999</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.296</v>
+        <v>-22.571</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1457,7 +1457,7 @@
         <v>-13.33</v>
       </c>
       <c r="D60" t="n">
-        <v>-8.077999999999999</v>
+        <v>-8.440000000000001</v>
       </c>
       <c r="E60" t="n">
         <v>16.4</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.578</v>
+        <v>-21.482</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.606</v>
+        <v>-21.587</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.114000000000001</v>
+        <v>-8.004000000000001</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1695,7 +1695,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.222</v>
+        <v>-7.964999999999999</v>
       </c>
       <c r="E74" t="n">
         <v>16.1</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.468</v>
+        <v>-20.856</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.886</v>
+        <v>-22.035</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.332</v>
+        <v>-6.822999999999999</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.303999999999999</v>
+        <v>-7.629</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.516</v>
+        <v>-21.509</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.295999999999999</v>
+        <v>-6.621</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.892</v>
+        <v>-21.395</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.794</v>
+        <v>-21.95</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
